--- a/user-data/funding-to-gavi/funding-to-gavi.xlsx
+++ b/user-data/funding-to-gavi/funding-to-gavi.xlsx
@@ -262,7 +262,7 @@
     <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 65</t>
+    <t xml:space="preserve">Source: 64</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 14</t>
